--- a/matlab script/inventory.xlsx
+++ b/matlab script/inventory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="122">
   <si>
     <t>Barracus</t>
   </si>
@@ -92,57 +92,9 @@
     <t xml:space="preserve"> The Adversary</t>
   </si>
   <si>
-    <t>wilter conscript</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blizzard(2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Erebus city sector#2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gehenna cursed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indestructible troop</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bolt crag#3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Execration</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Scorched hellwing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Auger ream</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> General dovan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Odynn the Godsteel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asentic patron</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Flourish turbine</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Cyclops raged</t>
   </si>
   <si>
-    <t xml:space="preserve"> Clawgor the mad</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Machina awoken</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Obsidian</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Demi Constrictor (2)</t>
   </si>
   <si>
@@ -215,9 +167,6 @@
     <t xml:space="preserve"> Typhon Vex</t>
   </si>
   <si>
-    <t>tazerreca</t>
-  </si>
-  <si>
     <t xml:space="preserve"> jilted baughe</t>
   </si>
   <si>
@@ -402,6 +351,45 @@
   </si>
   <si>
     <t xml:space="preserve"> Galereaver</t>
+  </si>
+  <si>
+    <t>Kylen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wilter conscript</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The adversary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Portal noctil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serak united</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baughe (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tazerreca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Halcyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zodiac Harbinger (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Longshot Deadeyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deathsteel Falcion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lucifire</t>
   </si>
 </sst>
 </file>
@@ -464,11 +452,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -758,35 +743,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="22.28515625" style="2"/>
+    <col min="1" max="1" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="22.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -795,24 +775,24 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -821,40 +801,36 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -863,168 +839,129 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>44</v>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -1032,361 +969,384 @@
       <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>110</v>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>49</v>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>51</v>
+      <c r="E23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="G32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="2" t="s">
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="B35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="E36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>83</v>
+      <c r="J36" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>58</v>
+      <c r="F37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="H38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>93</v>
+      <c r="J38" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1395,166 +1355,154 @@
       <c r="C41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="D41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>125</v>
+      <c r="D43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="1" t="s">
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="B48" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H48" s="2" t="s">
+      <c r="E48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:C51">

--- a/matlab script/inventory.xlsx
+++ b/matlab script/inventory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="187">
   <si>
     <t>Barracus</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Auger Ream</t>
   </si>
   <si>
-    <t xml:space="preserve"> Elite Squadrone</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Astral Strider</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>Tumblox</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oreworks(2)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Arch Nova Elite</t>
   </si>
   <si>
@@ -257,9 +251,6 @@
     <t xml:space="preserve"> Dreamreaper</t>
   </si>
   <si>
-    <t xml:space="preserve"> Spiteful Raptor(2)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bolt Crag</t>
   </si>
   <si>
@@ -293,12 +284,6 @@
     <t xml:space="preserve"> Noxious Tank</t>
   </si>
   <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>Zodiac Harbinger #2</t>
-  </si>
-  <si>
     <t>Shock Disruptor</t>
   </si>
   <si>
@@ -311,15 +296,9 @@
     <t xml:space="preserve"> Bane of Truth</t>
   </si>
   <si>
-    <t xml:space="preserve"> Crushing Anvil</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Elite Squadron</t>
   </si>
   <si>
-    <t xml:space="preserve"> Defiance</t>
-  </si>
-  <si>
     <t xml:space="preserve"> aggeroth chaos</t>
   </si>
   <si>
@@ -347,9 +326,6 @@
     <t xml:space="preserve"> Glimmer Shine</t>
   </si>
   <si>
-    <t xml:space="preserve"> Triad Cannon</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Galereaver</t>
   </si>
   <si>
@@ -390,6 +366,225 @@
   </si>
   <si>
     <t xml:space="preserve"> Lucifire</t>
+  </si>
+  <si>
+    <t>Constantine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Honorable Samurai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Auger Ream#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baughe#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Smite Forger#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kylen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xeno Suzerain#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Demi Constrictor#2</t>
+  </si>
+  <si>
+    <t>Tazerecca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Portal Noctil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tabitha</t>
+  </si>
+  <si>
+    <t>Sacred Sanctuary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deranged Fanatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Incog Niaq</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aggeroth Enraged</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nightlurker</t>
+  </si>
+  <si>
+    <t>Gaurdian Gamut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fenlord</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xanadu Ultra</t>
+  </si>
+  <si>
+    <t>Sculpted Aegis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jilted Baughe#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Insanitus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Withersnare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coldheart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daedalus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sage Ascendant</t>
+  </si>
+  <si>
+    <t>Halcyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Masterwork Aegis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xanadu Tetra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assailant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stinger Battalion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steel Ram (2)</t>
+  </si>
+  <si>
+    <t>Zodiac Harbinger#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Response Fleet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ayrkrane Vik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oreworks#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Smite Forge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samurai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lucifire re</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Constantine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Messale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nightscreecher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Animus Geist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zodiac Harbinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ruination Reaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spiteful Raptor (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trench Hurler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xilla Nail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Auger Ream (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spiteful Raptor</t>
+  </si>
+  <si>
+    <t>Dune Runner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inferno Demon#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abhorrent Recluse#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gaurdian Gamut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lord Silus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ezamit serene</t>
+  </si>
+  <si>
+    <t>Gehenna Cursed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mutilator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ion Convertor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supernova</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Razor Pinion#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Star Burner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cyclopse Raged#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Savage Ascendant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clawgor The Mad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tarantachnid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Riot Howitzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Machina Awoken</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Captain Dovan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malort</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vyander</t>
   </si>
 </sst>
 </file>
@@ -743,55 +938,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="22.28515625" style="1"/>
+    <col min="6" max="6" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="22.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -811,25 +1021,158 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -864,39 +1207,127 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -925,7 +1356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -933,24 +1364,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -959,138 +1390,179 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -1099,328 +1571,465 @@
         <v>24</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="J30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="J33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="I41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>14</v>
@@ -1429,47 +2038,106 @@
         <v>20</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -1478,13 +2146,13 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>18</v>
@@ -1494,14 +2162,8 @@
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>89</v>
+      <c r="A49" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
